--- a/SANTO_CRISTO.xlsx
+++ b/SANTO_CRISTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C94A7E58-00E2-4224-9809-6490D1A51876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{08E221F6-4A62-4D02-9A20-4635EF3003EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1288,7 +1288,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{4B2F9921-FD58-4EF0-B962-4479D4640556}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{CC302D06-1B41-4C1A-B31E-C7DCDF43D494}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1318,10 +1318,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02B2985B-D63B-4A43-80B0-62C9FBCEE2A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EBAB18F-35DF-416C-87B8-F1C7DA14ECC9}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1359,7 +1359,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45D56186-0734-43CF-A029-E28FF1AF0A3D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C61FB09A-6ECE-45A8-8DDE-DF563DBF90B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1422,7 +1422,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3E6EEA9-8D16-4BED-B3DA-97EF002D4B0A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D033C3E-7C08-43DE-B71D-493BE706ED63}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1441,7 +1441,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B529E8F-9828-E9B9-EB3B-A145CCFB419C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2D22AB6-0EF5-54A0-0FDD-A496B2735644}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1490,7 +1490,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A251B43F-57F8-7AB0-BF83-ED9A377CFFA1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AD8D6AF-5EB3-FD01-9FE9-0F0E887AC198}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1509,7 +1509,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{020939CC-AF0D-D1B9-98A6-8EF99CD95BE3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AABE7B8A-7514-5027-B4D8-322CC0C15556}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1540,7 +1540,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C35B8383-3CFE-24F4-F82F-D151309DB676}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{185609C3-BCA0-3021-2609-D4C89A4CFBD1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1571,7 +1571,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D90182A-69E5-EC40-2A52-B9DB2741CB0D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1D8AD5D-BCA7-1247-7841-35F423886DF7}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1614,7 +1614,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F780E69-D46B-421E-B194-8FBE31FB50F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6A50B45-9998-44EC-B7B0-376B033FA30A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1652,7 +1652,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBC4001B-A966-430B-9FED-DCAA93DC3364}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ED97331-2517-4C76-A2A2-93553FAA6F1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1695,7 +1695,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CBB5773-78D2-47FC-BF67-F6E36828CA22}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5775D9A-FD11-4CAA-8F50-A5E88B9432D8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2008,7 +2008,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6F190C0-F375-4ACE-8950-2AE95A0690B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83136FA7-DEAE-459F-A12C-EA9764C1F81C}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/SANTO_CRISTO.xlsx
+++ b/SANTO_CRISTO.xlsx
@@ -8,27 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08E221F6-4A62-4D02-9A20-4635EF3003EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A4D459A-BC15-476F-81D9-C2D873E93591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="9" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="8" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="BENS-INTERINOS" sheetId="4" r:id="rId5"/>
     <sheet name="TABELIÕES-DOAÇÃO" sheetId="5" r:id="rId6"/>
     <sheet name="CPIP" sheetId="6" r:id="rId7"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="7" r:id="rId8"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="8" r:id="rId9"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="321">
   <si>
     <t>COMARCA</t>
   </si>
@@ -992,12 +991,6 @@
   </si>
   <si>
     <t>Não finalizou procedimentos de eliminação</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
   </si>
 </sst>
 </file>
@@ -1197,7 +1190,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1268,27 +1261,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{CC302D06-1B41-4C1A-B31E-C7DCDF43D494}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{4C0E7C9B-FBEA-4BAA-9F97-6ADAF4DB87A8}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1318,10 +1296,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EBAB18F-35DF-416C-87B8-F1C7DA14ECC9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCBF6408-270D-4555-BA4E-A4990918AB1E}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1359,7 +1337,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C61FB09A-6ECE-45A8-8DDE-DF563DBF90B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D69F7CFB-2923-4F53-B137-4A9DDE5AC47C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1422,7 +1400,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D033C3E-7C08-43DE-B71D-493BE706ED63}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D37217C-3ECE-4A95-B790-488C295BBD60}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1441,7 +1419,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2D22AB6-0EF5-54A0-0FDD-A496B2735644}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{589CDB46-1B8A-1D87-ECCA-1CBEA7FEAEA5}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1490,7 +1468,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AD8D6AF-5EB3-FD01-9FE9-0F0E887AC198}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EFAEBF4-4634-59B8-1E63-022C05AE76D5}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1509,7 +1487,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AABE7B8A-7514-5027-B4D8-322CC0C15556}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E883FC7-E647-941D-3C8A-853277E9A0FF}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1540,7 +1518,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{185609C3-BCA0-3021-2609-D4C89A4CFBD1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F55FBC86-B6D9-4937-C1EA-42996FD82728}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1571,7 +1549,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1D8AD5D-BCA7-1247-7841-35F423886DF7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ABAB567-B8AE-49A6-3AC9-3B7873EF55C9}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1614,7 +1592,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6A50B45-9998-44EC-B7B0-376B033FA30A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC875C3C-8D92-470E-9446-E64D08E08471}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1652,7 +1630,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ED97331-2517-4C76-A2A2-93553FAA6F1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01054BC7-E883-4B99-B29A-C35063CC7601}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1695,7 +1673,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5775D9A-FD11-4CAA-8F50-A5E88B9432D8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DC1C489-E21D-4F2C-B9C7-B6114DDCD8B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2008,7 +1986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83136FA7-DEAE-459F-A12C-EA9764C1F81C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366EAE96-3622-4B37-BFBA-7E594647B8E3}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2020,98 +1998,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="38"/>
-    <col min="6" max="6" width="2" style="38" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="38" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="38"/>
+    <col min="1" max="5" width="12.5703125" style="33"/>
+    <col min="6" max="6" width="2" style="33" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="33" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="37"/>
+      <c r="F1" s="32"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="37"/>
+      <c r="F2" s="32"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="37"/>
+      <c r="F3" s="32"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="37"/>
+      <c r="F4" s="32"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="37"/>
+      <c r="F5" s="32"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="37"/>
+      <c r="F6" s="32"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="37"/>
+      <c r="F7" s="32"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="37"/>
+      <c r="F8" s="32"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="37"/>
+      <c r="F9" s="32"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="37"/>
+      <c r="F10" s="32"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="37"/>
+      <c r="F11" s="32"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="37"/>
+      <c r="F12" s="32"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="37"/>
+      <c r="F13" s="32"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="37"/>
+      <c r="F14" s="32"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="37"/>
+      <c r="F15" s="32"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="37"/>
+      <c r="F16" s="32"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="37"/>
+      <c r="F17" s="32"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="37"/>
+      <c r="F18" s="32"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="37"/>
+      <c r="F19" s="32"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="37"/>
+      <c r="F20" s="32"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="37"/>
+      <c r="F21" s="32"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="37"/>
+      <c r="F22" s="32"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="37"/>
+      <c r="F23" s="32"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="37"/>
+      <c r="F24" s="32"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="37"/>
+      <c r="F25" s="32"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="37"/>
+      <c r="F26" s="32"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="37"/>
+      <c r="F27" s="32"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="37"/>
+      <c r="F28" s="32"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="37"/>
+      <c r="F29" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5728,52 +5706,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>322</v>
-      </c>
-      <c r="E1" s="33">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
-        <v>283</v>
-      </c>
-      <c r="B2" s="36">
-        <v>7</v>
-      </c>
-      <c r="C2" s="34">
-        <v>4.6290173257505622E-4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/SANTO_CRISTO.xlsx
+++ b/SANTO_CRISTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A4D459A-BC15-476F-81D9-C2D873E93591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{90FF17A2-BC3B-44D6-B495-DB9EEF818E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1266,7 +1266,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{4C0E7C9B-FBEA-4BAA-9F97-6ADAF4DB87A8}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{D2D86C7D-626B-4824-9A2B-6543321A24CB}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1296,10 +1296,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCBF6408-270D-4555-BA4E-A4990918AB1E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48A6A5BC-174E-42EF-835A-D402B7B87572}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1337,7 +1337,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D69F7CFB-2923-4F53-B137-4A9DDE5AC47C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98D7CCEE-4EB3-48D8-AE60-22C121AF400D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1400,7 +1400,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D37217C-3ECE-4A95-B790-488C295BBD60}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A82802C-2FCA-4BA3-8DC9-16EAD48365D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1419,7 +1419,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{589CDB46-1B8A-1D87-ECCA-1CBEA7FEAEA5}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4724F69-B23A-DF13-E037-DE902437730A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1468,7 +1468,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EFAEBF4-4634-59B8-1E63-022C05AE76D5}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A998DAD-ADBF-E072-2E44-619BC558FE5D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1487,7 +1487,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E883FC7-E647-941D-3C8A-853277E9A0FF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{765E1E6D-D853-024B-02F2-360F60FD3EF3}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1518,7 +1518,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F55FBC86-B6D9-4937-C1EA-42996FD82728}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB92DA48-E7FE-7927-02E0-E98C4B8E420E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1549,7 +1549,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ABAB567-B8AE-49A6-3AC9-3B7873EF55C9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12841D1C-1136-640F-75E1-1D6C8BFF0EB8}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1592,7 +1592,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC875C3C-8D92-470E-9446-E64D08E08471}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D799FCB4-B428-459B-8A83-548833BCC701}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1630,7 +1630,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01054BC7-E883-4B99-B29A-C35063CC7601}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D05A725-D797-4E8D-B7D3-BA0CB7BE14D7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1655,50 +1655,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DC1C489-E21D-4F2C-B9C7-B6114DDCD8B5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1986,7 +1942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366EAE96-3622-4B37-BFBA-7E594647B8E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845B3E64-685D-4CA0-BBA0-3759910F0C7E}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
